--- a/AB010_要件定義/AB010010_システムについて.xlsx
+++ b/AB010_要件定義/AB010010_システムについて.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AB010_要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AB010_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82246D76-C5F1-4402-806E-68295705CC9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6941576-16D7-40E8-99E0-6F68DC267764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10150" yWindow="3540" windowWidth="17320" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4480" windowHeight="5940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システムの説明" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
@@ -241,40 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２日ＥＭＡが中心線よりも下に下落し、過去数週間の安値を更新しない場合に、第２のスクリーンを通過する。</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>チュウシンセン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゲラク</t>
-    </rPh>
-    <rPh sb="18" eb="23">
-      <t>カコスウシュウカン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヤスネ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ツウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>第３のスクリーン（日中におけるブレイクアウト）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -691,6 +657,102 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>チカヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下方から上方への転換が中心線よりも下（マイナスの値）で行った場合は、より買いのチャンスとなる。</t>
+    <rPh sb="0" eb="2">
+      <t>カホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンカン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>チュウシンセン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上方から下方への転換が中心線よりも上（プラスの値）で行った場合は、より売りのチャンスとなる。</t>
+    <rPh sb="8" eb="10">
+      <t>テンカン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>チュウシンセン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２日ＥＭＡが中心線よりも下に下落し、過去数週間（本システムでは3週間）の安値を更新しない場合に、第２のスクリーンを通過する。</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チュウシンセン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲラク</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>カコスウシュウカン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヤスネ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ツウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1051,13 +1113,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="A17:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1121,96 +1185,106 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1232,77 +1306,77 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
